--- a/va_facility_data_2025-02-20/Jacksonville 1 VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jacksonville%201%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jacksonville 1 VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jacksonville%201%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R004c2590fb944cafa5f8c44c985f5bc8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R15b517943da241e39841559cfc25cea4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R569e493db9bc459f971281c319d1100c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R57a27f3008e3491ca3f96eab084266a4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4cebcb7ca5214ac1b680c485870023ff"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb7d069c19694407590b44e06bcb9a443"/>
   </x:sheets>
 </x:workbook>
 </file>
